--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -529,13 +529,11 @@
     </font>
     <font>
       <sz val="10.500000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.750000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1090,7 +1088,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" topLeftCell="D1" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1284,7 +1282,9 @@
       <c r="K6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1">
@@ -1320,7 +1320,9 @@
       <c r="K7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="1">
@@ -1356,7 +1358,9 @@
       <c r="K8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="1">
@@ -1392,7 +1396,9 @@
       <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="1">
@@ -1428,7 +1434,9 @@
       <c r="K10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="1">
@@ -1464,7 +1472,9 @@
       <c r="K11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="1">
@@ -1500,7 +1510,9 @@
       <c r="K12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="1">
@@ -1536,7 +1548,9 @@
       <c r="K13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" s="1">

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="165">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -612,7 +612,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -669,6 +669,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -718,7 +724,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,15 +733,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,7 +749,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,7 +761,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,6 +781,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -778,8 +894,8 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -791,7 +907,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="63.02"/>
@@ -1157,7 +1273,9 @@
       <c r="J11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="L11" s="2" t="n">
         <v>1000</v>
       </c>
@@ -1941,7 +2059,7 @@
       <c r="E35" s="3" t="n">
         <v>7500000000</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="10" t="n">
         <v>65000</v>
       </c>
     </row>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -286,6 +286,9 @@
     <t xml:space="preserve">3674D2A0</t>
   </si>
   <si>
+    <t xml:space="preserve">-4771|-40930|4348|-34123|-999|999</t>
+  </si>
+  <si>
     <t xml:space="preserve">海底</t>
   </si>
   <si>
@@ -322,28 +325,13 @@
     <t xml:space="preserve">AreaDivide_Name_10</t>
   </si>
   <si>
-    <t xml:space="preserve">100|-54195|150</t>
+    <t xml:space="preserve">-6021.7|-50088|153.5</t>
   </si>
   <si>
     <t xml:space="preserve">28492BFE</t>
   </si>
   <si>
     <t xml:space="preserve">-4771|-58445|4348|-55900|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">秘密基地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1464|-37085|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106FD01F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7300|-39052|-3455|-35407|-999|999</t>
   </si>
   <si>
     <t xml:space="preserve">幻想商店</t>
@@ -892,10 +880,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1274,7 +1262,7 @@
         <v>58</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>1000</v>
@@ -1285,7 +1273,7 @@
         <v>1008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -1303,16 +1291,16 @@
         <v>174840</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>1000</v>
@@ -1323,7 +1311,7 @@
         <v>1009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -1341,16 +1329,16 @@
         <v>174833</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" s="2" t="n">
         <v>1000</v>
@@ -1361,7 +1349,7 @@
         <v>1010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -1379,60 +1367,49 @@
         <v>174840</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>1011</v>
+        <v>2001</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>7500000000</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>50000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>174833</v>
+        <v>177826</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="2" t="n">
-        <v>1000</v>
-      </c>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>79</v>
@@ -1441,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>177826</v>
+        <v>180217</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>80</v>
@@ -1459,7 +1436,7 @@
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>83</v>
@@ -1467,11 +1444,17 @@
       <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>37500</v>
+      </c>
       <c r="F17" s="3" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>180217</v>
+        <v>174840</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>84</v>
@@ -1479,17 +1462,20 @@
       <c r="I17" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="J17" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -1498,34 +1484,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>37500</v>
+        <v>85000</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -1534,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>85000</v>
+        <v>525000</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>25000</v>
@@ -1543,25 +1529,25 @@
         <v>174840</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -1570,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>525000</v>
+        <v>3500000</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>25000</v>
@@ -1578,26 +1564,25 @@
       <c r="G20" s="2" t="n">
         <v>174840</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>98</v>
+      <c r="H20" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="2"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -1606,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>3500000</v>
+        <v>18500000</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>25000</v>
@@ -1615,24 +1600,24 @@
         <v>174840</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -1641,33 +1626,33 @@
         <v>3</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>18500000</v>
+        <v>66666666</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -1676,33 +1661,33 @@
         <v>3</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>66666666</v>
+        <v>150000000</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -1711,56 +1696,47 @@
         <v>3</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>150000000</v>
+        <v>777000000</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>2010</v>
+        <v>3001</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>777000000</v>
-      </c>
       <c r="F25" s="3" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>174840</v>
+        <v>177826</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -1769,7 +1745,7 @@
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>127</v>
@@ -1778,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>177826</v>
+        <v>174840</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>128</v>
@@ -1795,7 +1771,7 @@
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>131</v>
@@ -1803,6 +1779,12 @@
       <c r="C27" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>50000</v>
+      </c>
       <c r="F27" s="3" t="n">
         <v>30000</v>
       </c>
@@ -1815,16 +1797,19 @@
       <c r="I27" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="J27" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="K27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -1833,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>50000</v>
+        <v>625000</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>30000</v>
@@ -1842,24 +1827,24 @@
         <v>174840</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -1868,33 +1853,33 @@
         <v>4</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>625000</v>
+        <v>11500000</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1</v>
@@ -1903,33 +1888,33 @@
         <v>4</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>11500000</v>
+        <v>8250000</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -1938,33 +1923,33 @@
         <v>4</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>8250000</v>
+        <v>72500000</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
@@ -1973,33 +1958,30 @@
         <v>4</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>72500000</v>
+        <v>2500000000</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>40000</v>
+        <v>65000</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>3008</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>160</v>
+        <v>3009</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1</v>
@@ -2008,30 +1990,15 @@
         <v>4</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>2500000000</v>
+        <v>350000000</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>174840</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>164</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1</v>
@@ -2040,29 +2007,13 @@
         <v>4</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>350000000</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>3010</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="n">
         <v>7500000000</v>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F34" s="10" t="n">
         <v>65000</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -313,7 +313,7 @@
     <t xml:space="preserve">100|-48094|150</t>
   </si>
   <si>
-    <t xml:space="preserve">250886BE</t>
+    <t xml:space="preserve">21E5ED18</t>
   </si>
   <si>
     <t xml:space="preserve">-4771|-55900|4348|-47640|-999|999</t>
@@ -883,7 +883,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -343,7 +343,7 @@
     <t xml:space="preserve">-18213|99548|79507</t>
   </si>
   <si>
-    <t xml:space="preserve">-21561|98278|-14783|104238|-15004|-13394</t>
+    <t xml:space="preserve">-16830.14|-19466.14|101941.13|98405.13|79482.33|80482.33</t>
   </si>
   <si>
     <t xml:space="preserve">魔法森林</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">-18213|95737|79382</t>
   </si>
   <si>
-    <t xml:space="preserve">-20690|91073|-16377|97262|-15004|-13394</t>
+    <t xml:space="preserve">-16124.14|-21625.14|97548.13|90734.13|79225.33|80482.33</t>
   </si>
   <si>
     <t xml:space="preserve">传送门</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">1CBF9F29</t>
   </si>
   <si>
-    <t xml:space="preserve">-20690|88446|-16377|91073|-15004|-13394</t>
+    <t xml:space="preserve">-17138.14|-20689.14|91457.13|88270.13|79225.33|80482.33</t>
   </si>
   <si>
     <t xml:space="preserve">古代遗迹</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">12BC0C283CCBEF38</t>
   </si>
   <si>
-    <t xml:space="preserve">-11668|113094|-4126|120386|-14768|-13713</t>
+    <t xml:space="preserve">-5672.12|-12464.12|120735|113905|65708.25|66832</t>
   </si>
   <si>
     <t xml:space="preserve">樱花庭院</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">12BC0C282FD20A42</t>
   </si>
   <si>
-    <t xml:space="preserve">-38838|90404|-31186|98658|-16134|-14258</t>
+    <t xml:space="preserve">-32149|-37765|99017|89573|78682|80577</t>
   </si>
   <si>
     <t xml:space="preserve">糖果岛</t>
@@ -415,7 +415,7 @@
     <t xml:space="preserve">12BC0C2810A52B8A</t>
   </si>
   <si>
-    <t xml:space="preserve">-35867|117360|-27902|125355|-14961|-13326</t>
+    <t xml:space="preserve">-24966|-36901|117072|124859|79489|82332</t>
   </si>
   <si>
     <t xml:space="preserve">墓地岛</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">12BC0C282374F85D</t>
   </si>
   <si>
-    <t xml:space="preserve">-2736|96606|5393|104096|-21326|-20000</t>
+    <t xml:space="preserve">-1264|6759|95949|103610|73002|75359</t>
   </si>
   <si>
     <t xml:space="preserve">地狱岛</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve">12BC0C283F2D14B1</t>
   </si>
   <si>
-    <t xml:space="preserve">-12560|78095|-3969|85265|-16788|-15498</t>
+    <t xml:space="preserve">-5456|-12251|86882|77509|77334|78540</t>
   </si>
   <si>
     <t xml:space="preserve">天堂岛</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">12BC0C283D7AD291</t>
   </si>
   <si>
-    <t xml:space="preserve">-20861|91599|-8847|99651|-751|548</t>
+    <t xml:space="preserve">-20535|-12992|90706|102852|93142|95702</t>
   </si>
   <si>
     <t xml:space="preserve">大天堂岛</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">33EFFD24</t>
   </si>
   <si>
-    <t xml:space="preserve">-20974|102469|-11127|111556|-751|548</t>
+    <t xml:space="preserve">-18598|-14197|102457|110106|93189|95077</t>
   </si>
   <si>
     <t xml:space="preserve">科技商店</t>
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1432,7 +1432,9 @@
       <c r="K16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="n">
+        <v>81000</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -355,7 +355,33 @@
     <t xml:space="preserve">-18213|95737|79382</t>
   </si>
   <si>
-    <t xml:space="preserve">-16124.14|-21625.14|97548.13|90734.13|79225.33|80482.33</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'-16124.14|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">97548.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">|-21625.14|90734.13|78500.33|80482.33</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">传送门</t>
@@ -600,7 +626,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -662,6 +688,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -883,7 +915,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -355,33 +355,7 @@
     <t xml:space="preserve">-18213|95737|79382</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'-16124.14|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">97548.13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">|-21625.14|90734.13|78500.33|80482.33</t>
-    </r>
+    <t xml:space="preserve">-21625.14|90734.13|-16124.14|97548.13|78500.33|80482.33</t>
   </si>
   <si>
     <t xml:space="preserve">传送门</t>
@@ -622,11 +596,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -689,12 +664,6 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -744,7 +713,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,7 +750,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -914,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,7 +1049,7 @@
       <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="2"/>
@@ -1103,7 +1076,7 @@
       <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="2" t="n">
@@ -1141,7 +1114,7 @@
       <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="2" t="n">
@@ -1179,7 +1152,7 @@
       <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="L8" s="2" t="n">
@@ -1217,7 +1190,7 @@
       <c r="J9" s="2" t="n">
         <v>32519069</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="9" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="2" t="n">
@@ -1255,7 +1228,7 @@
       <c r="J10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="2" t="n">
@@ -1293,7 +1266,7 @@
       <c r="J11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>59</v>
       </c>
       <c r="L11" s="2" t="n">
@@ -1331,7 +1304,7 @@
       <c r="J12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="L12" s="2" t="n">
@@ -1369,7 +1342,7 @@
       <c r="J13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="9" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="2" t="n">
@@ -1407,7 +1380,7 @@
       <c r="J14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="9" t="s">
         <v>74</v>
       </c>
       <c r="L14" s="2"/>
@@ -1434,7 +1407,7 @@
       <c r="I15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L15" s="2"/>
@@ -1461,7 +1434,7 @@
       <c r="I16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="9" t="s">
         <v>82</v>
       </c>
       <c r="L16" s="2" t="n">
@@ -1499,7 +1472,7 @@
       <c r="J17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="9" t="s">
         <v>87</v>
       </c>
       <c r="L17" s="2"/>
@@ -1535,7 +1508,7 @@
       <c r="J18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="9" t="s">
         <v>92</v>
       </c>
       <c r="L18" s="2"/>
@@ -1571,7 +1544,7 @@
       <c r="J19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="9" t="s">
         <v>97</v>
       </c>
       <c r="L19" s="2"/>
@@ -1607,7 +1580,7 @@
       <c r="J20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1642,7 +1615,7 @@
       <c r="J21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="9" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1677,7 +1650,7 @@
       <c r="J22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1712,7 +1685,7 @@
       <c r="J23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1747,7 +1720,7 @@
       <c r="J24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1773,7 +1746,7 @@
       <c r="I25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1799,7 +1772,7 @@
       <c r="I26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="9" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1834,7 +1807,7 @@
       <c r="J27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1869,7 +1842,7 @@
       <c r="J28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="9" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1904,7 +1877,7 @@
       <c r="J29" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="9" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1939,7 +1912,7 @@
       <c r="J30" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1974,7 +1947,7 @@
       <c r="J31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="9" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2009,7 +1982,7 @@
       <c r="J32" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2043,7 +2016,7 @@
       <c r="E34" s="3" t="n">
         <v>7500000000</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F34" s="11" t="n">
         <v>65000</v>
       </c>
     </row>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -343,7 +343,7 @@
     <t xml:space="preserve">-18213|99548|79507</t>
   </si>
   <si>
-    <t xml:space="preserve">-16830.14|-19466.14|101941.13|98405.13|79482.33|80482.33</t>
+    <t xml:space="preserve">-16830.14|102196|-19881|98221.09|79361.22|80258.22</t>
   </si>
   <si>
     <t xml:space="preserve">魔法森林</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">1CBF9F29</t>
   </si>
   <si>
-    <t xml:space="preserve">-17138.14|-20689.14|91457.13|88270.13|79225.33|80482.33</t>
+    <t xml:space="preserve">-17138.14|91457.13|-20689.14|88270.13|79225.33|80482.33</t>
   </si>
   <si>
     <t xml:space="preserve">古代遗迹</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">12BC0C283CCBEF38</t>
   </si>
   <si>
-    <t xml:space="preserve">-5672.12|-12464.12|120735|113905|65708.25|66832</t>
+    <t xml:space="preserve">-5672.12|120735|-12464.12|113905|65708.25|66832</t>
   </si>
   <si>
     <t xml:space="preserve">樱花庭院</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">12BC0C282FD20A42</t>
   </si>
   <si>
-    <t xml:space="preserve">-32149|-37765|99017|89573|78682|80577</t>
+    <t xml:space="preserve">-32149|99017|-37765|89573|78682|80577</t>
   </si>
   <si>
     <t xml:space="preserve">糖果岛</t>
@@ -415,7 +415,7 @@
     <t xml:space="preserve">12BC0C2810A52B8A</t>
   </si>
   <si>
-    <t xml:space="preserve">-24966|-36901|117072|124859|79489|82332</t>
+    <t xml:space="preserve">-24966|117072|-36901|124859|79489|82332</t>
   </si>
   <si>
     <t xml:space="preserve">墓地岛</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">12BC0C282374F85D</t>
   </si>
   <si>
-    <t xml:space="preserve">-1264|6759|95949|103610|73002|75359</t>
+    <t xml:space="preserve">-1264|95949|6759|103610|73002|75359</t>
   </si>
   <si>
     <t xml:space="preserve">地狱岛</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve">12BC0C283F2D14B1</t>
   </si>
   <si>
-    <t xml:space="preserve">-5456|-12251|86882|77509|77334|78540</t>
+    <t xml:space="preserve">-5456|86882|-12251|77509|77334|78540</t>
   </si>
   <si>
     <t xml:space="preserve">天堂岛</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">12BC0C283D7AD291</t>
   </si>
   <si>
-    <t xml:space="preserve">-20535|-12992|90706|102852|93142|95702</t>
+    <t xml:space="preserve">-20535|90706|-12992|102852|93142|95702</t>
   </si>
   <si>
     <t xml:space="preserve">大天堂岛</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">33EFFD24</t>
   </si>
   <si>
-    <t xml:space="preserve">-18598|-14197|102457|110106|93189|95077</t>
+    <t xml:space="preserve">-18598|102457|-14197|110106|93189|95077</t>
   </si>
   <si>
     <t xml:space="preserve">科技商店</t>
@@ -887,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1511,7 +1511,9 @@
       <c r="K18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="n">
+        <v>69155</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -1547,7 +1549,9 @@
       <c r="K19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="n">
+        <v>81509</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -1583,6 +1587,9 @@
       <c r="K20" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="L20" s="1" t="n">
+        <v>82564</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -1618,6 +1625,9 @@
       <c r="K21" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="L21" s="1" t="n">
+        <v>75515</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -1653,6 +1663,9 @@
       <c r="K22" s="9" t="s">
         <v>112</v>
       </c>
+      <c r="L22" s="1" t="n">
+        <v>79866</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -1688,6 +1701,9 @@
       <c r="K23" s="9" t="s">
         <v>117</v>
       </c>
+      <c r="L23" s="1" t="n">
+        <v>94882</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -1722,6 +1738,9 @@
       </c>
       <c r="K24" s="9" t="s">
         <v>122</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>94882</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -214,7 +214,7 @@
     <t xml:space="preserve">100|-1490|150</t>
   </si>
   <si>
-    <t xml:space="preserve">-4771|-7400|4348|-700|-999|999</t>
+    <t xml:space="preserve">-4771|-6530|4348|-700|-999|999</t>
   </si>
   <si>
     <t xml:space="preserve">森林</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">0218997B0FF469D1</t>
   </si>
   <si>
-    <t xml:space="preserve">-4771|-14090|4348|-7400|-999|999</t>
+    <t xml:space="preserve">-4771|-14250|4348|-6550|-999|999</t>
   </si>
   <si>
     <t xml:space="preserve">海滩</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">03E2F6F5</t>
   </si>
   <si>
-    <t xml:space="preserve">-4771|-20766|4348|-14090|-999|999</t>
+    <t xml:space="preserve">-4771|-20653|4348|-14260|-999|999</t>
   </si>
   <si>
     <t xml:space="preserve">石矿</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">100|-21280|150</t>
   </si>
   <si>
-    <t xml:space="preserve">-4771|-27423|4348|-20766|-999|999</t>
+    <t xml:space="preserve">-4771|-27200|4348|-20660|-999|999</t>
   </si>
   <si>
     <t xml:space="preserve">雪地</t>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">13B48149</t>
   </si>
   <si>
-    <t xml:space="preserve">-4771|-34130|4348|-27423|-999|999</t>
+    <t xml:space="preserve">-4771|-33950|4348|-27210|-999|999</t>
   </si>
   <si>
     <t xml:space="preserve">冰川</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">3674D2A0</t>
   </si>
   <si>
-    <t xml:space="preserve">-4771|-40930|4348|-34123|-999|999</t>
+    <t xml:space="preserve">-4771|-41000|4348|-33960|-999|999</t>
   </si>
   <si>
     <t xml:space="preserve">海底</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">334C5F8B</t>
   </si>
   <si>
-    <t xml:space="preserve">-4771|-47640|4348|-40895|-999|999</t>
+    <t xml:space="preserve">-4771|-47660|4348|-41010|-999|999</t>
   </si>
   <si>
     <t xml:space="preserve">沙漠</t>
@@ -887,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DDE7C6-22EE-44AC-93DE-5E0C072BB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -22,58 +36,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vector3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFcost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areaPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropItemPlatform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">区域说明（策划看）</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>IFcost</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Gem</t>
+  </si>
+  <si>
+    <t>imgGuid</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Loc</t>
+  </si>
+  <si>
+    <t>Guid</t>
+  </si>
+  <si>
+    <t>areaPoints</t>
+  </si>
+  <si>
+    <t>dropItemPlatform</t>
+  </si>
+  <si>
+    <t>区域说明（策划看）</t>
   </si>
   <si>
     <r>
@@ -83,16 +97,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">是否需要解锁</t>
+      <t>是否需要解锁</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">1=</t>
+      <t>1=</t>
     </r>
     <r>
       <rPr>
@@ -101,16 +114,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">需要；</t>
+      <t>需要；</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">0=</t>
+      <t>0=</t>
     </r>
     <r>
       <rPr>
@@ -119,7 +131,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">不需要</t>
+      <t>不需要</t>
     </r>
   </si>
   <si>
@@ -130,16 +142,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">货币种类（货币表</t>
+      <t>货币种类（货币表</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">id</t>
+      <t>id</t>
     </r>
     <r>
       <rPr>
@@ -148,23 +159,23 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">）</t>
+      <t>）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">解锁金币</t>
-  </si>
-  <si>
-    <t xml:space="preserve">传送钻石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">图标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">传送位置</t>
+    <t>解锁金币</t>
+  </si>
+  <si>
+    <t>传送钻石</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>传送位置</t>
   </si>
   <si>
     <r>
@@ -174,456 +185,435 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">区域划分点坐标数组</t>
+      <t>区域划分点坐标数组</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Xmin|Ymin|Xmax|Ymax</t>
+      <t>Xmin|Ymin|Xmax|Ymax</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">掉落物平台高度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">945|500|479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-660|4348|2324|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">城镇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-1490|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-6530|4348|-700|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-8285|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0218997B0FF469D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-14250|4348|-6550|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海滩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-14800|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03E2F6F5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-20653|4348|-14260|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石矿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-21280|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-27200|4348|-20660|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-28034|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13B48149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-33950|4348|-27210|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冰川</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-34840|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3674D2A0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-41000|4348|-33960|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海底</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-41690|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334C5F8B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-47660|4348|-41010|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">沙漠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-48094|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21E5ED18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-55900|4348|-47640|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">帐篷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6021.7|-50088|153.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28492BFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-58445|4348|-55900|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幻想商店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18213|99548|79507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16830.14|102196|-19881|98221.09|79361.22|80258.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔法森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18213|95737|79382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21625.14|90734.13|-16124.14|97548.13|78500.33|80482.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">传送门</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18502|91065|79383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CBF9F29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17138.14|91457.13|-20689.14|88270.13|79225.33|80482.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古代遗迹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8460|119433|66060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C283CCBEF38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5672.12|120735|-12464.12|113905|65708.25|66832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樱花庭院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35726|97166|78810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C282FD20A42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32149|99017|-37765|89573|78682|80577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">糖果岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32632|123920|79712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C2810A52B8A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24966|117072|-36901|124859|79489|82332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">墓地岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1326|97891|73279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C282374F85D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1264|95949|6759|103610|73002|75359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地狱岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9414|83875|77758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C283F2D14B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5456|86882|-12251|77509|77334|78540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天堂岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15796|93357|93547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C283D7AD291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20535|90706|-12992|102852|93142|95702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大天堂岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16335|105392|93547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33EFFD24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18598|102457|-14197|110106|93189|95077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科技商店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-28767|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111865|-28038|117890|-25488|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赛博城镇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-30595|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-36398|117360|-28500|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑暗科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-37291|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0892C365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-43583|117360|-36398|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒸汽朋克</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-43719|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36C0B9B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-49870|117360|-43583|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒸汽工厂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111670|-46414|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0E4385FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108970|-48045|112006|-44970|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑暗实验</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-50487|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19EBFE2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-56770|117360|-49870|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外星森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-57340|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3BF1E58F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-63565|117360|-56770|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阴暗森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111524|-60155|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04AFD82A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108365|-61650|111520|-58970|9105|10585</t>
+    <t>掉落物平台高度</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_1</t>
+  </si>
+  <si>
+    <t>945|500|479</t>
+  </si>
+  <si>
+    <t>-4771|-660|4348|2324|-999|999</t>
+  </si>
+  <si>
+    <t>城镇</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_2</t>
+  </si>
+  <si>
+    <t>100|-1490|150</t>
+  </si>
+  <si>
+    <t>-4771|-6530|4348|-700|-999|999</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_3</t>
+  </si>
+  <si>
+    <t>100|-8285|150</t>
+  </si>
+  <si>
+    <t>0218997B0FF469D1</t>
+  </si>
+  <si>
+    <t>-4771|-14250|4348|-6550|-999|999</t>
+  </si>
+  <si>
+    <t>海滩</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_4</t>
+  </si>
+  <si>
+    <t>100|-14800|150</t>
+  </si>
+  <si>
+    <t>03E2F6F5</t>
+  </si>
+  <si>
+    <t>-4771|-20653|4348|-14260|-999|999</t>
+  </si>
+  <si>
+    <t>石矿</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_5</t>
+  </si>
+  <si>
+    <t>100|-21280|150</t>
+  </si>
+  <si>
+    <t>-4771|-27200|4348|-20660|-999|999</t>
+  </si>
+  <si>
+    <t>雪地</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_6</t>
+  </si>
+  <si>
+    <t>100|-28034|150</t>
+  </si>
+  <si>
+    <t>13B48149</t>
+  </si>
+  <si>
+    <t>-4771|-33950|4348|-27210|-999|999</t>
+  </si>
+  <si>
+    <t>冰川</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_7</t>
+  </si>
+  <si>
+    <t>100|-34840|150</t>
+  </si>
+  <si>
+    <t>3674D2A0</t>
+  </si>
+  <si>
+    <t>-4771|-41000|4348|-33960|-999|999</t>
+  </si>
+  <si>
+    <t>海底</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_8</t>
+  </si>
+  <si>
+    <t>100|-41690|150</t>
+  </si>
+  <si>
+    <t>334C5F8B</t>
+  </si>
+  <si>
+    <t>-4771|-47660|4348|-41010|-999|999</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_9</t>
+  </si>
+  <si>
+    <t>100|-48094|150</t>
+  </si>
+  <si>
+    <t>21E5ED18</t>
+  </si>
+  <si>
+    <t>-4771|-55900|4348|-47640|-999|999</t>
+  </si>
+  <si>
+    <t>帐篷</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_10</t>
+  </si>
+  <si>
+    <t>-6021.7|-50088|153.5</t>
+  </si>
+  <si>
+    <t>28492BFE</t>
+  </si>
+  <si>
+    <t>-4771|-58445|4348|-55900|-999|999</t>
+  </si>
+  <si>
+    <t>幻想商店</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_12</t>
+  </si>
+  <si>
+    <t>-18213|99548|79507</t>
+  </si>
+  <si>
+    <t>-16830.14|102196|-19881|98221.09|79361.22|80258.22</t>
+  </si>
+  <si>
+    <t>魔法森林</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_14</t>
+  </si>
+  <si>
+    <t>-18213|95737|79382</t>
+  </si>
+  <si>
+    <t>-21625.14|90734.13|-16124.14|97548.13|78500.33|80482.33</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_13</t>
+  </si>
+  <si>
+    <t>-18502|91065|79383</t>
+  </si>
+  <si>
+    <t>1CBF9F29</t>
+  </si>
+  <si>
+    <t>-17138.14|91457.13|-20689.14|88270.13|79225.33|80482.33</t>
+  </si>
+  <si>
+    <t>古代遗迹</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_15</t>
+  </si>
+  <si>
+    <t>-8460|119433|66060</t>
+  </si>
+  <si>
+    <t>12BC0C283CCBEF38</t>
+  </si>
+  <si>
+    <t>-5672.12|120735|-12464.12|113905|65708.25|66832</t>
+  </si>
+  <si>
+    <t>樱花庭院</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_16</t>
+  </si>
+  <si>
+    <t>-35726|97166|78810</t>
+  </si>
+  <si>
+    <t>12BC0C282FD20A42</t>
+  </si>
+  <si>
+    <t>-32149|99017|-37765|89573|78682|80577</t>
+  </si>
+  <si>
+    <t>糖果岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_17</t>
+  </si>
+  <si>
+    <t>-32632|123920|79712</t>
+  </si>
+  <si>
+    <t>12BC0C2810A52B8A</t>
+  </si>
+  <si>
+    <t>-24966|117072|-36901|124859|79489|82332</t>
+  </si>
+  <si>
+    <t>墓地岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_18</t>
+  </si>
+  <si>
+    <t>1326|97891|73279</t>
+  </si>
+  <si>
+    <t>12BC0C282374F85D</t>
+  </si>
+  <si>
+    <t>-1264|95949|6759|103610|73002|75359</t>
+  </si>
+  <si>
+    <t>地狱岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_19</t>
+  </si>
+  <si>
+    <t>-9414|83875|77758</t>
+  </si>
+  <si>
+    <t>12BC0C283F2D14B1</t>
+  </si>
+  <si>
+    <t>-5456|86882|-12251|77509|77334|78540</t>
+  </si>
+  <si>
+    <t>天堂岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_20</t>
+  </si>
+  <si>
+    <t>-15796|93357|93547</t>
+  </si>
+  <si>
+    <t>12BC0C283D7AD291</t>
+  </si>
+  <si>
+    <t>-20535|90706|-12992|102852|93142|95702</t>
+  </si>
+  <si>
+    <t>大天堂岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_21</t>
+  </si>
+  <si>
+    <t>-16335|105392|93547</t>
+  </si>
+  <si>
+    <t>33EFFD24</t>
+  </si>
+  <si>
+    <t>-18598|102457|-14197|110106|93189|95077</t>
+  </si>
+  <si>
+    <t>科技商店</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_22</t>
+  </si>
+  <si>
+    <t>114503|-28767|10130</t>
+  </si>
+  <si>
+    <t>111865|-28038|117890|-25488|9105|10585</t>
+  </si>
+  <si>
+    <t>赛博城镇</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_23</t>
+  </si>
+  <si>
+    <t>114503|-30595|10130</t>
+  </si>
+  <si>
+    <t>111845|-36398|117360|-28500|9105|10585</t>
+  </si>
+  <si>
+    <t>黑暗科技</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_24</t>
+  </si>
+  <si>
+    <t>114503|-37291|10130</t>
+  </si>
+  <si>
+    <t>0892C365</t>
+  </si>
+  <si>
+    <t>111845|-43583|117360|-36398|9105|10585</t>
+  </si>
+  <si>
+    <t>蒸汽朋克</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_25</t>
+  </si>
+  <si>
+    <t>114503|-43719|10130</t>
+  </si>
+  <si>
+    <t>36C0B9B7</t>
+  </si>
+  <si>
+    <t>111845|-49870|117360|-43583|9105|10585</t>
+  </si>
+  <si>
+    <t>蒸汽工厂</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_26</t>
+  </si>
+  <si>
+    <t>111670|-46414|10130</t>
+  </si>
+  <si>
+    <t>0E4385FA</t>
+  </si>
+  <si>
+    <t>108970|-48045|112006|-44970|9105|10585</t>
+  </si>
+  <si>
+    <t>黑暗实验</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_27</t>
+  </si>
+  <si>
+    <t>114503|-50487|10130</t>
+  </si>
+  <si>
+    <t>19EBFE2C</t>
+  </si>
+  <si>
+    <t>111845|-56770|117360|-49870|9105|10585</t>
+  </si>
+  <si>
+    <t>外星森林</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_28</t>
+  </si>
+  <si>
+    <t>114503|-57340|10130</t>
+  </si>
+  <si>
+    <t>3BF1E58F</t>
+  </si>
+  <si>
+    <t>111845|-63565|117360|-56770|9105|10585</t>
+  </si>
+  <si>
+    <t>阴暗森林</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_29</t>
+  </si>
+  <si>
+    <t>111524|-60155|10130</t>
+  </si>
+  <si>
+    <t>04AFD82A</t>
+  </si>
+  <si>
+    <t>108365|-61650|111520|-58970|9105|10585</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -636,8 +626,7 @@
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -648,20 +637,23 @@
     <font>
       <sz val="9.75"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -680,7 +672,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -688,143 +680,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -877,39 +824,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="63.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="7.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="15" style="1" width="6.9"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="63" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="1" customWidth="1"/>
+    <col min="14" max="19" width="6.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -947,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -985,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1021,26 +967,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>25000</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>177826</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -1054,20 +1000,20 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>6000</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>174840</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -1079,30 +1025,30 @@
       <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="3">
         <v>7500</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>144238</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -1117,30 +1063,30 @@
       <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F8" s="3" t="n">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F8" s="3">
         <v>10000</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>180217</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -1155,30 +1101,30 @@
       <c r="K8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>400000</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="3">
         <v>12500</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>180218</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -1187,36 +1133,36 @@
       <c r="I9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>32519069</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="F10" s="3" t="n">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>625000</v>
+      </c>
+      <c r="F10" s="3">
         <v>12500</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>174840</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1231,30 +1177,30 @@
       <c r="K10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="F11" s="3" t="n">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2750000</v>
+      </c>
+      <c r="F11" s="3">
         <v>12500</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>174840</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -1269,30 +1215,30 @@
       <c r="K11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>16500000</v>
-      </c>
-      <c r="F12" s="3" t="n">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8250000</v>
+      </c>
+      <c r="F12" s="3">
         <v>12500</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>174840</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -1307,30 +1253,30 @@
       <c r="K12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="F13" s="3" t="n">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>25000000</v>
+      </c>
+      <c r="F13" s="3">
         <v>25000</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>174833</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -1345,30 +1291,30 @@
       <c r="K13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>250000000</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>125000000</v>
+      </c>
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>174840</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -1385,20 +1331,20 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>2001</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>50000</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>177826</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -1412,20 +1358,20 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>2002</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>20000</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>180217</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -1437,30 +1383,30 @@
       <c r="K16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="2">
         <v>81000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>2003</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>37500</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>30000</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>174840</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -1477,26 +1423,26 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>2004</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>85000</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>25000</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>174840</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -1511,30 +1457,30 @@
       <c r="K18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="2">
         <v>69155</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>2005</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>3</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>525000</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>25000</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>174840</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -1549,30 +1495,30 @@
       <c r="K19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="2">
         <v>81509</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>2006</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>3500000</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>25000</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>174840</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1587,30 +1533,30 @@
       <c r="K20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="1">
         <v>82564</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>2007</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="n">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>18500000</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>25000</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>174840</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1625,30 +1571,30 @@
       <c r="K21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="L21" s="1">
         <v>75515</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>2008</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="n">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>66666666</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>30000</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>174840</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1663,30 +1609,30 @@
       <c r="K22" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="L22" s="1">
         <v>79866</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>2009</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="n">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>150000000</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>35000</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>174840</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1701,30 +1647,30 @@
       <c r="K23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="L23" s="1">
         <v>94882</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>2010</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>777000000</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>50000</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>174840</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -1739,24 +1685,24 @@
       <c r="K24" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="L24" s="1">
         <v>94882</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>3001</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>65000</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>177826</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -1769,20 +1715,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>3002</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
         <v>30000</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>174840</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -1795,26 +1741,26 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>3003</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="n">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="3">
         <v>50000</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>30000</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>174840</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -1830,26 +1776,26 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>3004</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="n">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="3">
         <v>625000</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>30000</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>174840</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1865,26 +1811,26 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>3005</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="n">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="3">
         <v>11500000</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>45000</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>174840</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -1900,26 +1846,26 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>3006</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="n">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="3">
         <v>8250000</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="3">
         <v>35000</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>174840</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -1935,26 +1881,26 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>3007</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="n">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="3">
         <v>72500000</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>40000</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>174840</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1970,26 +1916,26 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>3008</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="n">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="3">
         <v>2500000000</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="3">
         <v>65000</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>174840</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2005,48 +1951,43 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>3009</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="n">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
         <v>4</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="3">
         <v>350000000</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>3010</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="n">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
         <v>4</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="3">
         <v>7500000000</v>
       </c>
-      <c r="F34" s="11" t="n">
+      <c r="F34" s="11">
         <v>65000</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -1,31 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DDE7C6-22EE-44AC-93DE-5E0C072BB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -36,58 +22,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>vector3</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>IFcost</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Gem</t>
-  </si>
-  <si>
-    <t>imgGuid</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Loc</t>
-  </si>
-  <si>
-    <t>Guid</t>
-  </si>
-  <si>
-    <t>areaPoints</t>
-  </si>
-  <si>
-    <t>dropItemPlatform</t>
-  </si>
-  <si>
-    <t>区域说明（策划看）</t>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vector3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFcost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areaPoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropItemPlatform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">区域说明（策划看）</t>
   </si>
   <si>
     <r>
@@ -97,15 +83,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>是否需要解锁</t>
+      <t xml:space="preserve">是否需要解锁</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>1=</t>
+      <t xml:space="preserve">1=</t>
     </r>
     <r>
       <rPr>
@@ -114,15 +101,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>需要；</t>
+      <t xml:space="preserve">需要；</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>0=</t>
+      <t xml:space="preserve">0=</t>
     </r>
     <r>
       <rPr>
@@ -131,7 +119,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>不需要</t>
+      <t xml:space="preserve">不需要</t>
     </r>
   </si>
   <si>
@@ -142,15 +130,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>货币种类（货币表</t>
+      <t xml:space="preserve">货币种类（货币表</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>id</t>
+      <t xml:space="preserve">id</t>
     </r>
     <r>
       <rPr>
@@ -159,23 +148,23 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
+      <t xml:space="preserve">）</t>
     </r>
   </si>
   <si>
-    <t>解锁金币</t>
-  </si>
-  <si>
-    <t>传送钻石</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>传送位置</t>
+    <t xml:space="preserve">解锁金币</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传送钻石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传送位置</t>
   </si>
   <si>
     <r>
@@ -185,435 +174,456 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>区域划分点坐标数组</t>
+      <t xml:space="preserve">区域划分点坐标数组</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>Xmin|Ymin|Xmax|Ymax</t>
+      <t xml:space="preserve">Xmin|Ymin|Xmax|Ymax</t>
     </r>
   </si>
   <si>
-    <t>掉落物平台高度</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_1</t>
-  </si>
-  <si>
-    <t>945|500|479</t>
-  </si>
-  <si>
-    <t>-4771|-660|4348|2324|-999|999</t>
-  </si>
-  <si>
-    <t>城镇</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_2</t>
-  </si>
-  <si>
-    <t>100|-1490|150</t>
-  </si>
-  <si>
-    <t>-4771|-6530|4348|-700|-999|999</t>
-  </si>
-  <si>
-    <t>森林</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_3</t>
-  </si>
-  <si>
-    <t>100|-8285|150</t>
-  </si>
-  <si>
-    <t>0218997B0FF469D1</t>
-  </si>
-  <si>
-    <t>-4771|-14250|4348|-6550|-999|999</t>
-  </si>
-  <si>
-    <t>海滩</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_4</t>
-  </si>
-  <si>
-    <t>100|-14800|150</t>
-  </si>
-  <si>
-    <t>03E2F6F5</t>
-  </si>
-  <si>
-    <t>-4771|-20653|4348|-14260|-999|999</t>
-  </si>
-  <si>
-    <t>石矿</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_5</t>
-  </si>
-  <si>
-    <t>100|-21280|150</t>
-  </si>
-  <si>
-    <t>-4771|-27200|4348|-20660|-999|999</t>
-  </si>
-  <si>
-    <t>雪地</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_6</t>
-  </si>
-  <si>
-    <t>100|-28034|150</t>
-  </si>
-  <si>
-    <t>13B48149</t>
-  </si>
-  <si>
-    <t>-4771|-33950|4348|-27210|-999|999</t>
-  </si>
-  <si>
-    <t>冰川</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_7</t>
-  </si>
-  <si>
-    <t>100|-34840|150</t>
-  </si>
-  <si>
-    <t>3674D2A0</t>
-  </si>
-  <si>
-    <t>-4771|-41000|4348|-33960|-999|999</t>
-  </si>
-  <si>
-    <t>海底</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_8</t>
-  </si>
-  <si>
-    <t>100|-41690|150</t>
-  </si>
-  <si>
-    <t>334C5F8B</t>
-  </si>
-  <si>
-    <t>-4771|-47660|4348|-41010|-999|999</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_9</t>
-  </si>
-  <si>
-    <t>100|-48094|150</t>
-  </si>
-  <si>
-    <t>21E5ED18</t>
-  </si>
-  <si>
-    <t>-4771|-55900|4348|-47640|-999|999</t>
-  </si>
-  <si>
-    <t>帐篷</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_10</t>
-  </si>
-  <si>
-    <t>-6021.7|-50088|153.5</t>
-  </si>
-  <si>
-    <t>28492BFE</t>
-  </si>
-  <si>
-    <t>-4771|-58445|4348|-55900|-999|999</t>
-  </si>
-  <si>
-    <t>幻想商店</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_12</t>
-  </si>
-  <si>
-    <t>-18213|99548|79507</t>
-  </si>
-  <si>
-    <t>-16830.14|102196|-19881|98221.09|79361.22|80258.22</t>
-  </si>
-  <si>
-    <t>魔法森林</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_14</t>
-  </si>
-  <si>
-    <t>-18213|95737|79382</t>
-  </si>
-  <si>
-    <t>-21625.14|90734.13|-16124.14|97548.13|78500.33|80482.33</t>
-  </si>
-  <si>
-    <t>传送门</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_13</t>
-  </si>
-  <si>
-    <t>-18502|91065|79383</t>
-  </si>
-  <si>
-    <t>1CBF9F29</t>
-  </si>
-  <si>
-    <t>-17138.14|91457.13|-20689.14|88270.13|79225.33|80482.33</t>
-  </si>
-  <si>
-    <t>古代遗迹</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_15</t>
-  </si>
-  <si>
-    <t>-8460|119433|66060</t>
-  </si>
-  <si>
-    <t>12BC0C283CCBEF38</t>
-  </si>
-  <si>
-    <t>-5672.12|120735|-12464.12|113905|65708.25|66832</t>
-  </si>
-  <si>
-    <t>樱花庭院</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_16</t>
-  </si>
-  <si>
-    <t>-35726|97166|78810</t>
-  </si>
-  <si>
-    <t>12BC0C282FD20A42</t>
-  </si>
-  <si>
-    <t>-32149|99017|-37765|89573|78682|80577</t>
-  </si>
-  <si>
-    <t>糖果岛</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_17</t>
-  </si>
-  <si>
-    <t>-32632|123920|79712</t>
-  </si>
-  <si>
-    <t>12BC0C2810A52B8A</t>
-  </si>
-  <si>
-    <t>-24966|117072|-36901|124859|79489|82332</t>
-  </si>
-  <si>
-    <t>墓地岛</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_18</t>
-  </si>
-  <si>
-    <t>1326|97891|73279</t>
-  </si>
-  <si>
-    <t>12BC0C282374F85D</t>
-  </si>
-  <si>
-    <t>-1264|95949|6759|103610|73002|75359</t>
-  </si>
-  <si>
-    <t>地狱岛</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_19</t>
-  </si>
-  <si>
-    <t>-9414|83875|77758</t>
-  </si>
-  <si>
-    <t>12BC0C283F2D14B1</t>
-  </si>
-  <si>
-    <t>-5456|86882|-12251|77509|77334|78540</t>
-  </si>
-  <si>
-    <t>天堂岛</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_20</t>
-  </si>
-  <si>
-    <t>-15796|93357|93547</t>
-  </si>
-  <si>
-    <t>12BC0C283D7AD291</t>
-  </si>
-  <si>
-    <t>-20535|90706|-12992|102852|93142|95702</t>
-  </si>
-  <si>
-    <t>大天堂岛</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_21</t>
-  </si>
-  <si>
-    <t>-16335|105392|93547</t>
-  </si>
-  <si>
-    <t>33EFFD24</t>
-  </si>
-  <si>
-    <t>-18598|102457|-14197|110106|93189|95077</t>
-  </si>
-  <si>
-    <t>科技商店</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_22</t>
-  </si>
-  <si>
-    <t>114503|-28767|10130</t>
-  </si>
-  <si>
-    <t>111865|-28038|117890|-25488|9105|10585</t>
-  </si>
-  <si>
-    <t>赛博城镇</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_23</t>
-  </si>
-  <si>
-    <t>114503|-30595|10130</t>
-  </si>
-  <si>
-    <t>111845|-36398|117360|-28500|9105|10585</t>
-  </si>
-  <si>
-    <t>黑暗科技</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_24</t>
-  </si>
-  <si>
-    <t>114503|-37291|10130</t>
-  </si>
-  <si>
-    <t>0892C365</t>
-  </si>
-  <si>
-    <t>111845|-43583|117360|-36398|9105|10585</t>
-  </si>
-  <si>
-    <t>蒸汽朋克</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_25</t>
-  </si>
-  <si>
-    <t>114503|-43719|10130</t>
-  </si>
-  <si>
-    <t>36C0B9B7</t>
-  </si>
-  <si>
-    <t>111845|-49870|117360|-43583|9105|10585</t>
-  </si>
-  <si>
-    <t>蒸汽工厂</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_26</t>
-  </si>
-  <si>
-    <t>111670|-46414|10130</t>
-  </si>
-  <si>
-    <t>0E4385FA</t>
-  </si>
-  <si>
-    <t>108970|-48045|112006|-44970|9105|10585</t>
-  </si>
-  <si>
-    <t>黑暗实验</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_27</t>
-  </si>
-  <si>
-    <t>114503|-50487|10130</t>
-  </si>
-  <si>
-    <t>19EBFE2C</t>
-  </si>
-  <si>
-    <t>111845|-56770|117360|-49870|9105|10585</t>
-  </si>
-  <si>
-    <t>外星森林</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_28</t>
-  </si>
-  <si>
-    <t>114503|-57340|10130</t>
-  </si>
-  <si>
-    <t>3BF1E58F</t>
-  </si>
-  <si>
-    <t>111845|-63565|117360|-56770|9105|10585</t>
-  </si>
-  <si>
-    <t>阴暗森林</t>
-  </si>
-  <si>
-    <t>AreaDivide_Name_29</t>
-  </si>
-  <si>
-    <t>111524|-60155|10130</t>
-  </si>
-  <si>
-    <t>04AFD82A</t>
-  </si>
-  <si>
-    <t>108365|-61650|111520|-58970|9105|10585</t>
+    <t xml:space="preserve">掉落物平台高度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">945|500|479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-660|4348|2324|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">城镇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|-1490|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-6530|4348|-700|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|-8285|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0218997B0FF469D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-14250|4348|-6550|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海滩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|-14800|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03E2F6F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-20653|4348|-14260|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石矿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|-21280|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-27200|4348|-20660|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|-28034|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13B48149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-33950|4348|-27210|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰川</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|-34840|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3674D2A0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-41000|4348|-33960|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|-41690|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334C5F8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-47660|4348|-41010|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沙漠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|-48094|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21E5ED18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-55900|4348|-47640|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帐篷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6021.7|-50088|153.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28492BFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4771|-58445|4348|-55900|-999|999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幻想商店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18213|99548|79507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16830.14|102196|-19881|98221.09|79361.22|80258.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔法森林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18213|95737|79382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21625.14|90734.13|-16124.14|97548.13|78500.33|80482.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传送门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18502|91065|79383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CBF9F29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17138.14|91457.13|-20689.14|88270.13|79225.33|80482.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古代遗迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8460|119433|66060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12BC0C283CCBEF38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5672.12|120735|-12464.12|113905|65708.25|66832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樱花庭院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35726|97166|78810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12BC0C282FD20A42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31135|99981|-40151|89573|77652|80577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">糖果岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32632|123920|79712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12BC0C2810A52B8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24966|117072|-36901|124859|79489|82332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">墓地岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1326|97891|73279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12BC0C282374F85D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1264|95949|6759|103610|73002|75359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地狱岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9414|83875|77758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12BC0C283F2D14B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5456|86882|-12251|77509|77334|78540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天堂岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15796|93357|93547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12BC0C283D7AD291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20535|90706|-12992|102852|93142|95702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大天堂岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16335|105392|93547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33EFFD24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18598|102457|-14197|110106|93189|95077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科技商店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114503|-28767|10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111865|-28038|117890|-25488|9105|10585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赛博城镇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114503|-30595|10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111845|-36398|117360|-28500|9105|10585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑暗科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114503|-37291|10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0892C365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111845|-43583|117360|-36398|9105|10585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒸汽朋克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114503|-43719|10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36C0B9B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111845|-49870|117360|-43583|9105|10585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒸汽工厂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111670|-46414|10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0E4385FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108970|-48045|112006|-44970|9105|10585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑暗实验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114503|-50487|10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19EBFE2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111845|-56770|117360|-49870|9105|10585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外星森林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114503|-57340|10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3BF1E58F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111845|-63565|117360|-56770|9105|10585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阴暗森林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaDivide_Name_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111524|-60155|10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04AFD82A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108365|-61650|111520|-58970|9105|10585</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -627,6 +637,7 @@
       <sz val="10.5"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -638,23 +649,14 @@
       <sz val="9.75"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -672,7 +674,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -680,98 +682,139 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="11">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -824,38 +867,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="63" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="1" customWidth="1"/>
-    <col min="14" max="19" width="6.875" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="14" style="1" width="6.87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -893,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -931,7 +975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -967,26 +1011,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>1001</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>25000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2" t="n">
         <v>177826</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -1000,20 +1044,20 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>6000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -1025,30 +1069,30 @@
       <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>1003</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>7500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="n">
         <v>144238</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -1063,30 +1107,30 @@
       <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>1004</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>37500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="2" t="n">
         <v>180217</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -1101,30 +1145,30 @@
       <c r="K8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>1005</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>200000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="n">
         <v>12500</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2" t="n">
         <v>180218</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -1133,36 +1177,36 @@
       <c r="I9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="2" t="n">
         <v>32519069</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>1006</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>625000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="n">
         <v>12500</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1177,30 +1221,30 @@
       <c r="K10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>1007</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>2750000</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="n">
         <v>12500</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -1212,33 +1256,33 @@
       <c r="J11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>1008</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>8250000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="n">
         <v>12500</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -1253,30 +1297,30 @@
       <c r="K12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>1009</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>25000000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="n">
         <v>25000</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="2" t="n">
         <v>174833</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -1291,30 +1335,30 @@
       <c r="K13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>1010</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>125000000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -1331,20 +1375,20 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="2" t="n">
         <v>177826</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -1358,20 +1402,20 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>2002</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="2" t="n">
         <v>180217</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -1383,30 +1427,30 @@
       <c r="K16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="2" t="n">
         <v>81000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>2003</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="n">
         <v>37500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -1423,26 +1467,26 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>2004</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="n">
         <v>85000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="n">
         <v>25000</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -1457,30 +1501,30 @@
       <c r="K18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="2" t="n">
         <v>69155</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>2005</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="3" t="n">
         <v>525000</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="3" t="n">
         <v>25000</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -1495,30 +1539,30 @@
       <c r="K19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="2" t="n">
         <v>81509</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>2006</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="n">
         <v>3500000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="n">
         <v>25000</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1533,30 +1577,30 @@
       <c r="K20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="1" t="n">
         <v>82564</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>2007</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="n">
         <v>18500000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="n">
         <v>25000</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1571,30 +1615,30 @@
       <c r="K21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="1" t="n">
         <v>75515</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>2008</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="n">
         <v>66666666</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1609,30 +1653,30 @@
       <c r="K22" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="1" t="n">
         <v>79866</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="n">
         <v>150000000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="n">
         <v>35000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1647,30 +1691,30 @@
       <c r="K23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="1" t="n">
         <v>94882</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>2010</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="n">
         <v>777000000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -1685,24 +1729,24 @@
       <c r="K24" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="1" t="n">
         <v>94882</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>3001</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
         <v>65000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="2" t="n">
         <v>177826</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -1715,20 +1759,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>3002</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -1741,26 +1785,26 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>3003</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -1776,26 +1820,26 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>3004</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="3" t="n">
         <v>625000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1811,26 +1855,26 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>3005</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="n">
         <v>11500000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="n">
         <v>45000</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -1846,26 +1890,26 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>3006</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="3" t="n">
         <v>8250000</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="3" t="n">
         <v>35000</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -1881,26 +1925,26 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>3007</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="3" t="n">
         <v>72500000</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="3" t="n">
         <v>40000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1916,26 +1960,26 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>3008</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="n">
         <v>2500000000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="n">
         <v>65000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="2" t="n">
         <v>174840</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -1951,43 +1995,47 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>3009</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="n">
         <v>350000000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>3010</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="3" t="n">
         <v>7500000000</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10" t="n">
         <v>65000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -472,7 +472,7 @@
     <t xml:space="preserve">-16335|105392|93547</t>
   </si>
   <si>
-    <t xml:space="preserve">33EFFD24</t>
+    <t xml:space="preserve">2B4A0E1C</t>
   </si>
   <si>
     <t xml:space="preserve">-18598|102457|-14197|110106|93189|95077</t>
@@ -601,7 +601,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -658,6 +658,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -707,48 +720,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,10 +896,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1401,6 +1422,7 @@
         <v>78</v>
       </c>
       <c r="L15" s="2"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -1694,6 +1716,7 @@
       <c r="L23" s="1" t="n">
         <v>94882</v>
       </c>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -1723,7 +1746,7 @@
       <c r="I24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="11" t="s">
         <v>121</v>
       </c>
       <c r="K24" s="9" t="s">
@@ -1732,6 +1755,7 @@
       <c r="L24" s="1" t="n">
         <v>94882</v>
       </c>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -2025,7 +2049,7 @@
       <c r="E34" s="3" t="n">
         <v>7500000000</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F34" s="12" t="n">
         <v>65000</v>
       </c>
     </row>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -469,7 +469,7 @@
     <t xml:space="preserve">AreaDivide_Name_21</t>
   </si>
   <si>
-    <t xml:space="preserve">-16335|105392|93547</t>
+    <t xml:space="preserve">-16397|104173|93530</t>
   </si>
   <si>
     <t xml:space="preserve">2B4A0E1C</t>
@@ -898,8 +898,8 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F46423E-AD4B-474E-8F12-9BB4B3C63DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,58 +27,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vector3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFcost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areaPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropItemPlatform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">区域说明（策划看）</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>IFcost</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Gem</t>
+  </si>
+  <si>
+    <t>imgGuid</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Loc</t>
+  </si>
+  <si>
+    <t>Guid</t>
+  </si>
+  <si>
+    <t>areaPoints</t>
+  </si>
+  <si>
+    <t>dropItemPlatform</t>
+  </si>
+  <si>
+    <t>区域说明（策划看）</t>
   </si>
   <si>
     <r>
@@ -83,7 +88,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">是否需要解锁</t>
+      <t>是否需要解锁</t>
     </r>
     <r>
       <rPr>
@@ -92,7 +97,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1=</t>
+      <t>1=</t>
     </r>
     <r>
       <rPr>
@@ -101,7 +106,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">需要；</t>
+      <t>需要；</t>
     </r>
     <r>
       <rPr>
@@ -110,7 +115,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0=</t>
+      <t>0=</t>
     </r>
     <r>
       <rPr>
@@ -119,7 +124,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">不需要</t>
+      <t>不需要</t>
     </r>
   </si>
   <si>
@@ -130,7 +135,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">货币种类（货币表</t>
+      <t>货币种类（货币表</t>
     </r>
     <r>
       <rPr>
@@ -139,7 +144,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">id</t>
+      <t>id</t>
     </r>
     <r>
       <rPr>
@@ -148,23 +153,23 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">）</t>
+      <t>）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">解锁金币</t>
-  </si>
-  <si>
-    <t xml:space="preserve">传送钻石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">图标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">传送位置</t>
+    <t>解锁金币</t>
+  </si>
+  <si>
+    <t>传送钻石</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>传送位置</t>
   </si>
   <si>
     <r>
@@ -174,7 +179,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">区域划分点坐标数组</t>
+      <t>区域划分点坐标数组</t>
     </r>
     <r>
       <rPr>
@@ -183,447 +188,427 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Xmin|Ymin|Xmax|Ymax</t>
+      <t>Xmin|Ymin|Xmax|Ymax</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">掉落物平台高度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">945|500|479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-660|4348|2324|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">城镇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-1490|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-6530|4348|-700|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-8285|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0218997B0FF469D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-14250|4348|-6550|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海滩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-14800|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03E2F6F5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-20653|4348|-14260|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石矿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-21280|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-27200|4348|-20660|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-28034|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13B48149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-33950|4348|-27210|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冰川</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-34840|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3674D2A0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-41000|4348|-33960|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海底</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-41690|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334C5F8B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-47660|4348|-41010|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">沙漠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|-48094|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21E5ED18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-55900|4348|-47640|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">帐篷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6021.7|-50088|153.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28492BFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4771|-58445|4348|-55900|-999|999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幻想商店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18213|99548|79507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16830.14|102196|-19881|98221.09|79361.22|80258.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔法森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18213|95737|79382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21625.14|90734.13|-16124.14|97548.13|78500.33|80482.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">传送门</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18502|91065|79383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CBF9F29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17138.14|91457.13|-20689.14|88270.13|79225.33|80482.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古代遗迹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8460|119433|66060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C283CCBEF38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5672.12|120735|-12464.12|113905|65708.25|66832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樱花庭院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35726|97166|78810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C282FD20A42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31135|99981|-40151|89573|77652|80577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">糖果岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32632|123920|79712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C2810A52B8A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24966|117072|-36901|124859|79489|82332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">墓地岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1326|97891|73279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C282374F85D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1264|95949|6759|103610|73002|75359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地狱岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9414|83875|77758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C283F2D14B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5456|86882|-12251|77509|77334|78540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天堂岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15796|93357|93547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12BC0C283D7AD291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20535|90706|-12992|102852|93142|95702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大天堂岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16397|104173|93530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2B4A0E1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18598|102457|-14197|110106|93189|95077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科技商店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-28767|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111865|-28038|117890|-25488|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赛博城镇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-30595|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-36398|117360|-28500|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑暗科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-37291|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0892C365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-43583|117360|-36398|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒸汽朋克</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-43719|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36C0B9B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-49870|117360|-43583|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒸汽工厂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111670|-46414|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0E4385FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108970|-48045|112006|-44970|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑暗实验</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-50487|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19EBFE2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-56770|117360|-49870|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外星森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503|-57340|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3BF1E58F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111845|-63565|117360|-56770|9105|10585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阴暗森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaDivide_Name_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111524|-60155|10130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04AFD82A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108365|-61650|111520|-58970|9105|10585</t>
+    <t>掉落物平台高度</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_1</t>
+  </si>
+  <si>
+    <t>945|500|479</t>
+  </si>
+  <si>
+    <t>-4771|-660|4348|2324|-999|999</t>
+  </si>
+  <si>
+    <t>城镇</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_2</t>
+  </si>
+  <si>
+    <t>100|-1490|150</t>
+  </si>
+  <si>
+    <t>-4771|-6530|4348|-700|-999|999</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_3</t>
+  </si>
+  <si>
+    <t>100|-8285|150</t>
+  </si>
+  <si>
+    <t>0218997B0FF469D1</t>
+  </si>
+  <si>
+    <t>-4771|-14250|4348|-6550|-999|999</t>
+  </si>
+  <si>
+    <t>海滩</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_4</t>
+  </si>
+  <si>
+    <t>100|-14800|150</t>
+  </si>
+  <si>
+    <t>03E2F6F5</t>
+  </si>
+  <si>
+    <t>-4771|-20653|4348|-14260|-999|999</t>
+  </si>
+  <si>
+    <t>石矿</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_5</t>
+  </si>
+  <si>
+    <t>100|-21280|150</t>
+  </si>
+  <si>
+    <t>-4771|-27200|4348|-20660|-999|999</t>
+  </si>
+  <si>
+    <t>雪地</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_6</t>
+  </si>
+  <si>
+    <t>100|-28034|150</t>
+  </si>
+  <si>
+    <t>13B48149</t>
+  </si>
+  <si>
+    <t>-4771|-33950|4348|-27210|-999|999</t>
+  </si>
+  <si>
+    <t>冰川</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_7</t>
+  </si>
+  <si>
+    <t>100|-34840|150</t>
+  </si>
+  <si>
+    <t>3674D2A0</t>
+  </si>
+  <si>
+    <t>-4771|-41000|4348|-33960|-999|999</t>
+  </si>
+  <si>
+    <t>海底</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_8</t>
+  </si>
+  <si>
+    <t>100|-41690|150</t>
+  </si>
+  <si>
+    <t>334C5F8B</t>
+  </si>
+  <si>
+    <t>-4771|-47660|4348|-41010|-999|999</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_9</t>
+  </si>
+  <si>
+    <t>100|-48094|150</t>
+  </si>
+  <si>
+    <t>21E5ED18</t>
+  </si>
+  <si>
+    <t>-4771|-55900|4348|-47640|-999|999</t>
+  </si>
+  <si>
+    <t>帐篷</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_10</t>
+  </si>
+  <si>
+    <t>-6021.7|-50088|153.5</t>
+  </si>
+  <si>
+    <t>28492BFE</t>
+  </si>
+  <si>
+    <t>-4771|-58445|4348|-55900|-999|999</t>
+  </si>
+  <si>
+    <t>幻想商店</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_12</t>
+  </si>
+  <si>
+    <t>-18213|99548|79507</t>
+  </si>
+  <si>
+    <t>-16830.14|102196|-19881|98221.09|79361.22|80258.22</t>
+  </si>
+  <si>
+    <t>魔法森林</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_14</t>
+  </si>
+  <si>
+    <t>-18213|95737|79382</t>
+  </si>
+  <si>
+    <t>-21625.14|90734.13|-16124.14|97548.13|78500.33|80482.33</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_13</t>
+  </si>
+  <si>
+    <t>-18502|91065|79383</t>
+  </si>
+  <si>
+    <t>1CBF9F29</t>
+  </si>
+  <si>
+    <t>-17138.14|91457.13|-20689.14|88270.13|79225.33|80482.33</t>
+  </si>
+  <si>
+    <t>古代遗迹</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_15</t>
+  </si>
+  <si>
+    <t>-8460|119433|66060</t>
+  </si>
+  <si>
+    <t>12BC0C283CCBEF38</t>
+  </si>
+  <si>
+    <t>-5672.12|120735|-12464.12|113905|65708.25|66832</t>
+  </si>
+  <si>
+    <t>樱花庭院</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_16</t>
+  </si>
+  <si>
+    <t>-35726|97166|78810</t>
+  </si>
+  <si>
+    <t>12BC0C282FD20A42</t>
+  </si>
+  <si>
+    <t>-31135|99981|-40151|89573|77652|80577</t>
+  </si>
+  <si>
+    <t>糖果岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_17</t>
+  </si>
+  <si>
+    <t>-32632|123920|79712</t>
+  </si>
+  <si>
+    <t>12BC0C2810A52B8A</t>
+  </si>
+  <si>
+    <t>-24966|117072|-36901|124859|79489|82332</t>
+  </si>
+  <si>
+    <t>墓地岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_18</t>
+  </si>
+  <si>
+    <t>1326|97891|73279</t>
+  </si>
+  <si>
+    <t>12BC0C282374F85D</t>
+  </si>
+  <si>
+    <t>-1264|95949|6759|103610|73002|75359</t>
+  </si>
+  <si>
+    <t>地狱岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_19</t>
+  </si>
+  <si>
+    <t>-9414|83875|77758</t>
+  </si>
+  <si>
+    <t>12BC0C283F2D14B1</t>
+  </si>
+  <si>
+    <t>-5456|86882|-12251|77509|77334|78540</t>
+  </si>
+  <si>
+    <t>天堂岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_20</t>
+  </si>
+  <si>
+    <t>-15796|93357|93547</t>
+  </si>
+  <si>
+    <t>12BC0C283D7AD291</t>
+  </si>
+  <si>
+    <t>-20535|90706|-12992|102852|93142|95702</t>
+  </si>
+  <si>
+    <t>大天堂岛</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_21</t>
+  </si>
+  <si>
+    <t>-16397|104173|93530</t>
+  </si>
+  <si>
+    <t>2B4A0E1C</t>
+  </si>
+  <si>
+    <t>-18598|102457|-14197|110106|93189|95077</t>
+  </si>
+  <si>
+    <t>科技商店</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_22</t>
+  </si>
+  <si>
+    <t>114503|-28767|10130</t>
+  </si>
+  <si>
+    <t>111865|-28038|117890|-25488|9105|10585</t>
+  </si>
+  <si>
+    <t>赛博城镇</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_23</t>
+  </si>
+  <si>
+    <t>114503|-30595|10130</t>
+  </si>
+  <si>
+    <t>111845|-36398|117360|-28500|9105|10585</t>
+  </si>
+  <si>
+    <t>黑暗科技</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_24</t>
+  </si>
+  <si>
+    <t>114503|-37291|10130</t>
+  </si>
+  <si>
+    <t>0892C365</t>
+  </si>
+  <si>
+    <t>111845|-43583|117360|-36398|9105|10585</t>
+  </si>
+  <si>
+    <t>蒸汽朋克</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_25</t>
+  </si>
+  <si>
+    <t>114503|-43719|10130</t>
+  </si>
+  <si>
+    <t>36C0B9B7</t>
+  </si>
+  <si>
+    <t>111845|-49870|117360|-43583|9105|10585</t>
+  </si>
+  <si>
+    <t>蒸汽工厂</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_26</t>
+  </si>
+  <si>
+    <t>111670|-46414|10130</t>
+  </si>
+  <si>
+    <t>0E4385FA</t>
+  </si>
+  <si>
+    <t>108970|-48045|112006|-44970|9105|10585</t>
+  </si>
+  <si>
+    <t>黑暗实验</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_27</t>
+  </si>
+  <si>
+    <t>114503|-50487|10130</t>
+  </si>
+  <si>
+    <t>19EBFE2C</t>
+  </si>
+  <si>
+    <t>111845|-56770|117360|-49870|9105|10585</t>
+  </si>
+  <si>
+    <t>外星森林</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_28</t>
+  </si>
+  <si>
+    <t>114503|-57340|10130</t>
+  </si>
+  <si>
+    <t>3BF1E58F</t>
+  </si>
+  <si>
+    <t>111845|-63565|117360|-56770|9105|10585</t>
+  </si>
+  <si>
+    <t>阴暗森林</t>
+  </si>
+  <si>
+    <t>AreaDivide_Name_29</t>
+  </si>
+  <si>
+    <t>111524|-60155|10130</t>
+  </si>
+  <si>
+    <t>04AFD82A</t>
+  </si>
+  <si>
+    <t>108365|-61650|111520|-58970|9105|10585</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -671,6 +656,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -687,7 +678,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -695,147 +686,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -888,39 +833,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="14" style="1" width="6.87"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="63" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="1" customWidth="1"/>
+    <col min="14" max="19" width="6.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -996,7 +940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1032,26 +976,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>25000</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>177826</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -1065,20 +1009,20 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>6000</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>174840</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -1090,30 +1034,30 @@
       <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>5000</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>7500</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>144238</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -1128,30 +1072,30 @@
       <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>37500</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>10000</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>180217</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -1166,30 +1110,30 @@
       <c r="K8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>200000</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>12500</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>180218</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -1198,36 +1142,36 @@
       <c r="I9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>32519069</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="n">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>625000</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>12500</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>174840</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1242,30 +1186,30 @@
       <c r="K10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>2750000</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>12500</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>174840</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -1280,30 +1224,30 @@
       <c r="K11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>8250000</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>12500</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>174840</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -1318,30 +1262,30 @@
       <c r="K12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="n">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>25000000</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>25000</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>174833</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -1356,30 +1300,30 @@
       <c r="K13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>125000000</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>174840</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -1396,20 +1340,20 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>2001</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>50000</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>177826</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -1424,20 +1368,20 @@
       <c r="L15" s="2"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>2002</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>20000</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>180217</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -1449,30 +1393,30 @@
       <c r="K16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="2">
         <v>81000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>2003</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>37500</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>30000</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>174840</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -1489,26 +1433,26 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>2004</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>85000</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>25000</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>174840</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -1523,30 +1467,30 @@
       <c r="K18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="2">
         <v>69155</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>2005</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>3</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>525000</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>25000</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>174840</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -1561,30 +1505,30 @@
       <c r="K19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="2">
         <v>81509</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>2006</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>3500000</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>25000</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>174840</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1599,30 +1543,30 @@
       <c r="K20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="1">
         <v>82564</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>2007</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="n">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>18500000</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>25000</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>174840</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1637,30 +1581,30 @@
       <c r="K21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="L21" s="1">
         <v>75515</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>2008</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="n">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>66666666</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>30000</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>174840</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1675,30 +1619,30 @@
       <c r="K22" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="L22" s="1">
         <v>79866</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>2009</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="n">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>150000000</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>35000</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>174840</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1713,31 +1657,31 @@
       <c r="K23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="L23" s="1">
         <v>94882</v>
       </c>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>2010</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>777000000</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>50000</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>174840</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -1752,25 +1696,25 @@
       <c r="K24" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="L24" s="1">
         <v>94882</v>
       </c>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>3001</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>65000</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>177826</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -1783,20 +1727,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>3002</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
         <v>30000</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>174840</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -1809,26 +1753,26 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>3003</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="n">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="3">
         <v>50000</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>30000</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>174840</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -1844,26 +1788,26 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>3004</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="n">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="3">
         <v>625000</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>30000</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>174840</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1879,26 +1823,26 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>3005</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="n">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="3">
         <v>11500000</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>45000</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>174840</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -1914,26 +1858,26 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>3006</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="n">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="3">
         <v>8250000</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="3">
         <v>35000</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>174840</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -1949,26 +1893,26 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>3007</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="n">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="3">
         <v>72500000</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>40000</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>174840</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1984,26 +1928,26 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>3008</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="n">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="3">
         <v>2500000000</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="3">
         <v>65000</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>174840</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2019,47 +1963,43 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>3009</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="n">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
         <v>4</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="3">
         <v>350000000</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>3010</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="n">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
         <v>4</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="3">
         <v>7500000000</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="12">
         <v>65000</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F46423E-AD4B-474E-8F12-9BB4B3C63DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20640" windowHeight="14184" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>int</t>
   </si>
@@ -76,6 +65,9 @@
   </si>
   <si>
     <t>dropItemPlatform</t>
+  </si>
+  <si>
+    <t>minResourceCount</t>
   </si>
   <si>
     <t>区域说明（策划看）</t>
@@ -85,7 +77,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是否需要解锁</t>
@@ -94,7 +85,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>1=</t>
@@ -103,7 +93,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>需要；</t>
@@ -112,7 +101,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>0=</t>
@@ -121,7 +109,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>不需要</t>
@@ -132,7 +119,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>货币种类（货币表</t>
@@ -141,7 +127,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>id</t>
@@ -150,7 +135,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -176,7 +160,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>区域划分点坐标数组</t>
@@ -185,7 +168,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Xmin|Ymin|Xmax|Ymax</t>
@@ -195,6 +177,9 @@
     <t>掉落物平台高度</t>
   </si>
   <si>
+    <t>区域内资源刷新数量下限 默认100</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
@@ -600,70 +585,211 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +802,194 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -685,9 +997,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -707,24 +1261,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -783,7 +1381,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -834,37 +1432,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.1287878787879" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.87878787878788" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6287878787879" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3787878787879" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.8787878787879" style="1" customWidth="1"/>
     <col min="11" max="11" width="63" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="1" customWidth="1"/>
-    <col min="14" max="19" width="6.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.87878787878788" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.1818181818182" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.0909090909091" style="1" customWidth="1"/>
+    <col min="15" max="19" width="6.87878787878788" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="18" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,8 +1500,11 @@
       <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -939,55 +1541,61 @@
       <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="8:12">
       <c r="H4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="18" customHeight="1" spans="1:12">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -999,22 +1607,22 @@
         <v>177826</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1026,24 +1634,24 @@
         <v>174840</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="L6" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="18" customHeight="1" spans="1:12">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1061,27 +1669,27 @@
         <v>144238</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="L7" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="18" customHeight="1" spans="1:12">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1099,27 +1707,27 @@
         <v>180217</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="L8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="18" customHeight="1" spans="1:12">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1137,27 +1745,27 @@
         <v>180218</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2">
         <v>32519069</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>49</v>
+      <c r="K9" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="L9" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="18" customHeight="1" spans="1:12">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1175,27 +1783,27 @@
         <v>174840</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="L10" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="18" customHeight="1" spans="1:12">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1213,27 +1821,27 @@
         <v>174840</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="L11" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="18" customHeight="1" spans="1:12">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1251,27 +1859,27 @@
         <v>174840</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="L12" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="18" customHeight="1" spans="1:13">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1289,27 +1897,30 @@
         <v>174833</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="L13" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:12">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1327,25 +1938,25 @@
         <v>174840</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="18" customHeight="1" spans="1:14">
       <c r="A15" s="2">
         <v>2001</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1357,23 +1968,23 @@
         <v>177826</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:12">
       <c r="A16" s="2">
         <v>2002</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1385,24 +1996,24 @@
         <v>180217</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="L16" s="2">
         <v>81000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="18" customHeight="1" spans="1:12">
       <c r="A17" s="2">
         <v>2003</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1420,25 +2031,25 @@
         <v>174840</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="18" customHeight="1" spans="1:12">
       <c r="A18" s="2">
         <v>2004</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1456,27 +2067,27 @@
         <v>174840</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="L18" s="2">
         <v>69155</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="18" customHeight="1" spans="1:12">
       <c r="A19" s="2">
         <v>2005</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1494,27 +2105,27 @@
         <v>174840</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="L19" s="2">
         <v>81509</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="18" customHeight="1" spans="1:12">
       <c r="A20" s="2">
         <v>2006</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1532,27 +2143,27 @@
         <v>174840</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="L20" s="1">
         <v>82564</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="18" customHeight="1" spans="1:12">
       <c r="A21" s="2">
         <v>2007</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1570,27 +2181,27 @@
         <v>174840</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="L21" s="1">
         <v>75515</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="18" customHeight="1" spans="1:12">
       <c r="A22" s="2">
         <v>2008</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1608,27 +2219,27 @@
         <v>174840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="L22" s="1">
         <v>79866</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="18" customHeight="1" spans="1:15">
       <c r="A23" s="2">
         <v>2009</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1646,28 +2257,28 @@
         <v>174840</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="L23" s="1">
         <v>94882</v>
       </c>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:15">
       <c r="A24" s="2">
         <v>2010</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1685,28 +2296,28 @@
         <v>174840</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="9" t="s">
         <v>122</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="L24" s="1">
         <v>94882</v>
       </c>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:11">
       <c r="A25" s="2">
         <v>3001</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1718,21 +2329,21 @@
         <v>177826</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:11">
       <c r="A26" s="2">
         <v>3002</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1744,21 +2355,21 @@
         <v>174840</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:11">
       <c r="A27" s="2">
         <v>3003</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1776,24 +2387,24 @@
         <v>174840</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:11">
       <c r="A28" s="2">
         <v>3004</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1811,24 +2422,24 @@
         <v>174840</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:11">
       <c r="A29" s="2">
         <v>3005</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1846,24 +2457,24 @@
         <v>174840</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:11">
       <c r="A30" s="2">
         <v>3006</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1881,24 +2492,24 @@
         <v>174840</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:11">
       <c r="A31" s="2">
         <v>3007</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1916,24 +2527,24 @@
         <v>174840</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:11">
       <c r="A32" s="2">
         <v>3008</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1951,19 +2562,19 @@
         <v>174840</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:6">
       <c r="A33" s="2">
         <v>3009</v>
       </c>
@@ -1980,7 +2591,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" ht="18" customHeight="1" spans="1:6">
       <c r="A34" s="2">
         <v>3010</v>
       </c>
@@ -1993,13 +2604,13 @@
       <c r="E34" s="3">
         <v>7500000000</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <v>65000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -1440,8 +1440,8 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1287878787879" defaultRowHeight="15"/>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:12">
+    <row r="5" ht="18" customHeight="1" spans="1:13">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1616,8 +1616,11 @@
         <v>33</v>
       </c>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:12">
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:13">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1645,8 +1648,11 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:12">
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:13">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1683,8 +1689,11 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:12">
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:13">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1721,8 +1730,11 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:12">
+      <c r="M8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:13">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1759,8 +1771,11 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:12">
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:13">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1797,8 +1812,11 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:12">
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:13">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1835,8 +1853,11 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:12">
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:13">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1872,6 +1893,9 @@
       </c>
       <c r="L12" s="2">
         <v>1000</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13">
@@ -1915,7 +1939,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:12">
+    <row r="14" ht="18" customHeight="1" spans="1:13">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -1950,6 +1974,9 @@
         <v>76</v>
       </c>
       <c r="L14" s="2"/>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:14">
       <c r="A15" s="2">
@@ -1977,9 +2004,12 @@
         <v>80</v>
       </c>
       <c r="L15" s="2"/>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:12">
+    <row r="16" ht="18" customHeight="1" spans="1:13">
       <c r="A16" s="2">
         <v>2002</v>
       </c>
@@ -2007,8 +2037,11 @@
       <c r="L16" s="2">
         <v>81000</v>
       </c>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:12">
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:13">
       <c r="A17" s="2">
         <v>2003</v>
       </c>
@@ -2043,8 +2076,11 @@
         <v>89</v>
       </c>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:12">
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:13">
       <c r="A18" s="2">
         <v>2004</v>
       </c>
@@ -2081,8 +2117,11 @@
       <c r="L18" s="2">
         <v>69155</v>
       </c>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:12">
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:13">
       <c r="A19" s="2">
         <v>2005</v>
       </c>
@@ -2119,8 +2158,11 @@
       <c r="L19" s="2">
         <v>81509</v>
       </c>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:12">
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:13">
       <c r="A20" s="2">
         <v>2006</v>
       </c>
@@ -2157,8 +2199,11 @@
       <c r="L20" s="1">
         <v>82564</v>
       </c>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:12">
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:13">
       <c r="A21" s="2">
         <v>2007</v>
       </c>
@@ -2195,8 +2240,11 @@
       <c r="L21" s="1">
         <v>75515</v>
       </c>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:12">
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:13">
       <c r="A22" s="2">
         <v>2008</v>
       </c>
@@ -2232,6 +2280,9 @@
       </c>
       <c r="L22" s="1">
         <v>79866</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:15">
@@ -2271,6 +2322,9 @@
       <c r="L23" s="1">
         <v>94882</v>
       </c>
+      <c r="M23" s="1">
+        <v>100</v>
+      </c>
       <c r="O23" s="11"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:15">
@@ -2310,9 +2364,12 @@
       <c r="L24" s="1">
         <v>94882</v>
       </c>
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:11">
+    <row r="25" ht="18" customHeight="1" spans="1:13">
       <c r="A25" s="2">
         <v>3001</v>
       </c>
@@ -2337,8 +2394,11 @@
       <c r="K25" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:11">
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:13">
       <c r="A26" s="2">
         <v>3002</v>
       </c>
@@ -2363,8 +2423,11 @@
       <c r="K26" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:11">
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:13">
       <c r="A27" s="2">
         <v>3003</v>
       </c>
@@ -2398,8 +2461,11 @@
       <c r="K27" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:11">
+      <c r="M27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:13">
       <c r="A28" s="2">
         <v>3004</v>
       </c>
@@ -2433,8 +2499,11 @@
       <c r="K28" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:11">
+      <c r="M28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:13">
       <c r="A29" s="2">
         <v>3005</v>
       </c>
@@ -2468,8 +2537,11 @@
       <c r="K29" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:11">
+      <c r="M29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:13">
       <c r="A30" s="2">
         <v>3006</v>
       </c>
@@ -2503,8 +2575,11 @@
       <c r="K30" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:11">
+      <c r="M30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:13">
       <c r="A31" s="2">
         <v>3007</v>
       </c>
@@ -2538,8 +2613,11 @@
       <c r="K31" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:11">
+      <c r="M31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:13">
       <c r="A32" s="2">
         <v>3008</v>
       </c>
@@ -2572,6 +2650,9 @@
       </c>
       <c r="K32" s="10" t="s">
         <v>162</v>
+      </c>
+      <c r="M32" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:6">

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B93B309-BCA3-449B-98C8-0189063200E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20640" windowHeight="14184" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,6 +83,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是否需要解锁</t>
@@ -85,7 +92,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>1=</t>
     </r>
@@ -93,6 +100,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>需要；</t>
@@ -101,7 +109,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>0=</t>
     </r>
@@ -109,6 +117,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>不需要</t>
@@ -119,6 +128,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>货币种类（货币表</t>
@@ -127,7 +137,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -135,6 +145,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -160,6 +171,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>区域划分点坐标数组</t>
@@ -168,7 +180,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>Xmin|Ymin|Xmax|Ymax</t>
     </r>
@@ -585,15 +597,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -603,193 +611,51 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,194 +668,8 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -997,251 +677,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1249,80 +687,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1381,7 +775,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1432,38 +826,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1287878787879" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.87878787878788" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6287878787879" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3787878787879" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.8787878787879" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="63" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.87878787878788" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.1818181818182" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.0909090909091" style="1" customWidth="1"/>
-    <col min="15" max="19" width="6.87878787878788" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
+    <col min="15" max="19" width="6.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:13">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:13">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:13">
+    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1584,13 +978,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="8:12">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:13">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1620,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:13">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1649,10 +1043,10 @@
         <v>1000</v>
       </c>
       <c r="M6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1690,10 +1084,10 @@
         <v>1000</v>
       </c>
       <c r="M7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1734,7 +1128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:13">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1775,7 +1169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:13">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1813,10 +1207,10 @@
         <v>1000</v>
       </c>
       <c r="M10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1854,10 +1248,10 @@
         <v>1000</v>
       </c>
       <c r="M11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1895,10 +1289,10 @@
         <v>1000</v>
       </c>
       <c r="M12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -1939,7 +1333,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:13">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -1978,7 +1372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:14">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2001</v>
       </c>
@@ -2009,7 +1403,7 @@
       </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:13">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2002</v>
       </c>
@@ -2041,7 +1435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:13">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2003</v>
       </c>
@@ -2080,7 +1474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:13">
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2004</v>
       </c>
@@ -2121,7 +1515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:13">
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2005</v>
       </c>
@@ -2162,7 +1556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:13">
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2006</v>
       </c>
@@ -2203,7 +1597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:13">
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2007</v>
       </c>
@@ -2244,7 +1638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:13">
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2008</v>
       </c>
@@ -2285,7 +1679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:15">
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2009</v>
       </c>
@@ -2327,7 +1721,7 @@
       </c>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:15">
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2010</v>
       </c>
@@ -2369,7 +1763,7 @@
       </c>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:13">
+    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>3001</v>
       </c>
@@ -2398,7 +1792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:13">
+    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>3002</v>
       </c>
@@ -2427,7 +1821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:13">
+    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>3003</v>
       </c>
@@ -2465,7 +1859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:13">
+    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>3004</v>
       </c>
@@ -2503,7 +1897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:13">
+    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>3005</v>
       </c>
@@ -2541,7 +1935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:13">
+    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>3006</v>
       </c>
@@ -2579,7 +1973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:13">
+    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>3007</v>
       </c>
@@ -2617,7 +2011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:13">
+    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>3008</v>
       </c>
@@ -2655,7 +2049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>3009</v>
       </c>
@@ -2672,7 +2066,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>3010</v>
       </c>
@@ -2690,8 +2084,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B93B309-BCA3-449B-98C8-0189063200E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45164244-720F-4231-91AD-8AA20CB37344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -599,7 +610,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -687,19 +698,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -832,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -854,7 +865,7 @@
     <col min="12" max="12" width="6.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="32.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
-    <col min="15" max="19" width="6.875" style="1" customWidth="1"/>
+    <col min="15" max="18" width="6.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1060,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F7" s="3">
         <v>7500</v>
@@ -1101,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>37500</v>
+        <v>30000</v>
       </c>
       <c r="F8" s="3">
         <v>10000</v>
@@ -1142,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="F9" s="3">
         <v>12500</v>
@@ -1183,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>625000</v>
+        <v>500000</v>
       </c>
       <c r="F10" s="3">
         <v>12500</v>
@@ -1224,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>2750000</v>
+        <v>2200000</v>
       </c>
       <c r="F11" s="3">
         <v>12500</v>
@@ -1265,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>8250000</v>
+        <v>6600000</v>
       </c>
       <c r="F12" s="3">
         <v>12500</v>
@@ -1306,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>25000000</v>
+        <v>20000000</v>
       </c>
       <c r="F13" s="3">
         <v>25000</v>
@@ -1347,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>125000000</v>
+        <v>100000000</v>
       </c>
       <c r="F14" s="3">
         <v>20000</v>
@@ -1449,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>37500</v>
+        <v>75000</v>
       </c>
       <c r="F17" s="3">
         <v>30000</v>
@@ -1488,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>85000</v>
+        <v>170000</v>
       </c>
       <c r="F18" s="3">
         <v>25000</v>
@@ -1529,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>525000</v>
+        <v>1050000</v>
       </c>
       <c r="F19" s="3">
         <v>25000</v>
@@ -1570,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>3500000</v>
+        <v>7000000</v>
       </c>
       <c r="F20" s="3">
         <v>25000</v>
@@ -1611,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>18500000</v>
+        <v>37000000</v>
       </c>
       <c r="F21" s="3">
         <v>25000</v>
@@ -1652,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>66666666</v>
+        <v>133333333</v>
       </c>
       <c r="F22" s="3">
         <v>30000</v>
@@ -1693,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>150000000</v>
+        <v>300000000</v>
       </c>
       <c r="F23" s="3">
         <v>35000</v>
@@ -1735,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>777000000</v>
+        <v>1555000000</v>
       </c>
       <c r="F24" s="3">
         <v>50000</v>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45164244-720F-4231-91AD-8AA20CB37344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D071A60-1639-47FC-AB29-AA5614D37553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1446,7 +1446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2003</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="F17" s="3">
         <v>30000</v>
@@ -1485,7 +1485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2004</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>170000</v>
+        <v>136000</v>
       </c>
       <c r="F18" s="3">
         <v>25000</v>
@@ -1526,7 +1526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2005</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>1050000</v>
+        <v>840000</v>
       </c>
       <c r="F19" s="3">
         <v>25000</v>
@@ -1567,7 +1567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2006</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>7000000</v>
+        <v>5600000</v>
       </c>
       <c r="F20" s="3">
         <v>25000</v>
@@ -1608,7 +1608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2007</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>37000000</v>
+        <v>29600000</v>
       </c>
       <c r="F21" s="3">
         <v>25000</v>
@@ -1649,7 +1649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2008</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>133333333</v>
+        <v>106666665</v>
       </c>
       <c r="F22" s="3">
         <v>30000</v>
@@ -1690,7 +1690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2009</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>300000000</v>
+        <v>240000000</v>
       </c>
       <c r="F23" s="3">
         <v>35000</v>
@@ -1730,9 +1730,8 @@
       <c r="M23" s="1">
         <v>100</v>
       </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2010</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>1555000000</v>
+        <v>1243200000</v>
       </c>
       <c r="F24" s="3">
         <v>50000</v>
@@ -1772,9 +1771,8 @@
       <c r="M24" s="1">
         <v>100</v>
       </c>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>3001</v>
       </c>
@@ -1803,7 +1801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>3002</v>
       </c>
@@ -1832,7 +1830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>3003</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>3004</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>3005</v>
       </c>
@@ -1946,7 +1944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>3006</v>
       </c>
@@ -1984,7 +1982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>3007</v>
       </c>
@@ -2022,7 +2020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>3008</v>
       </c>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D071A60-1639-47FC-AB29-AA5614D37553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A6280-DF68-4FB8-9A5F-11EC82030774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,7 +846,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F8" s="3">
         <v>10000</v>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="F9" s="3">
         <v>12500</v>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>500000</v>
+        <v>360000</v>
       </c>
       <c r="F10" s="3">
         <v>12500</v>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="F11" s="3">
         <v>12500</v>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>6600000</v>
+        <v>4000000</v>
       </c>
       <c r="F12" s="3">
         <v>12500</v>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="F13" s="3">
         <v>25000</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>100000000</v>
+        <v>30000000</v>
       </c>
       <c r="F14" s="3">
         <v>20000</v>

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A6280-DF68-4FB8-9A5F-11EC82030774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE0EF23-29F1-4F0D-AAED-8E7D2DE8D348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -846,7 +846,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1443,7 +1443,7 @@
         <v>81000</v>
       </c>
       <c r="M16" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">

--- a/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
+++ b/pet-simulator/Excel/AreaDivide_区域划分表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE0EF23-29F1-4F0D-AAED-8E7D2DE8D348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F44C23A-B4E8-4207-B556-92617D31061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -846,7 +846,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1523,7 +1523,7 @@
         <v>69155</v>
       </c>
       <c r="M18" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1564,7 +1564,7 @@
         <v>81509</v>
       </c>
       <c r="M19" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1605,7 +1605,7 @@
         <v>82564</v>
       </c>
       <c r="M20" s="1">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1646,7 +1646,7 @@
         <v>75515</v>
       </c>
       <c r="M21" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1687,7 +1687,7 @@
         <v>79866</v>
       </c>
       <c r="M22" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1728,7 +1728,7 @@
         <v>94882</v>
       </c>
       <c r="M23" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
